--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="317">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:45:40+02:00</t>
+    <t>2024-12-10T12:33:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -299,6 +299,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -414,6 +418,16 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -518,6 +532,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -610,6 +628,9 @@
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -665,6 +686,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>Patient.contact</t>
   </si>
   <si>
@@ -757,6 +782,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -781,6 +809,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -788,6 +819,9 @@
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
@@ -806,11 +840,18 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Patient.contact.period</t>
@@ -824,6 +865,14 @@
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -1317,7 +1366,7 @@
     <col min="27" max="27" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1743,10 +1792,10 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1754,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1780,16 +1829,16 @@
         <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -1839,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
@@ -1848,10 +1897,10 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1859,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1885,16 +1934,16 @@
         <v>20</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -1920,13 +1969,13 @@
         <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>20</v>
@@ -1944,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -1953,10 +2002,10 @@
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1964,14 +2013,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -1990,16 +2039,16 @@
         <v>20</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2049,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
@@ -2058,10 +2107,10 @@
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2069,14 +2118,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2095,16 +2144,16 @@
         <v>20</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2154,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -2174,14 +2223,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2200,16 +2249,16 @@
         <v>20</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2247,19 +2296,19 @@
         <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -2268,10 +2317,10 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -2279,14 +2328,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2305,19 +2354,19 @@
         <v>20</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>20</v>
@@ -2354,19 +2403,19 @@
         <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -2375,10 +2424,10 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -2386,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2412,17 +2461,17 @@
         <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>20</v>
@@ -2471,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -2480,10 +2529,10 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2491,10 +2540,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2517,70 +2566,70 @@
         <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -2589,10 +2638,10 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2600,10 +2649,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2626,19 +2675,19 @@
         <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q13" t="s" s="2">
         <v>20</v>
@@ -2687,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2696,10 +2745,10 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2707,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2733,19 +2782,19 @@
         <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>20</v>
@@ -2794,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2803,10 +2852,10 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2814,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2840,19 +2889,19 @@
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>20</v>
@@ -2877,31 +2926,31 @@
         <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2910,10 +2959,10 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2921,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2947,19 +2996,19 @@
         <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>20</v>
@@ -3008,7 +3057,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -3017,10 +3066,10 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -3028,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3054,19 +3103,19 @@
         <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>20</v>
@@ -3115,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -3124,10 +3173,10 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -3135,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3161,19 +3210,19 @@
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="s" s="2">
         <v>20</v>
@@ -3222,7 +3271,7 @@
         <v>20</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3231,10 +3280,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3242,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3268,17 +3317,19 @@
         <v>20</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>20</v>
@@ -3303,31 +3354,31 @@
         <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3336,10 +3387,10 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3373,19 +3424,19 @@
         <v>20</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>20</v>
@@ -3434,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3443,10 +3494,10 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -3454,10 +3505,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3480,19 +3531,19 @@
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>20</v>
@@ -3541,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3550,10 +3601,10 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3561,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3587,19 +3638,19 @@
         <v>20</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>20</v>
@@ -3648,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3657,10 +3708,10 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -3668,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3694,13 +3745,13 @@
         <v>20</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3751,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3771,14 +3822,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
@@ -3797,16 +3848,16 @@
         <v>20</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -3844,19 +3895,19 @@
         <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3865,10 +3916,10 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
@@ -3876,14 +3927,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -3902,19 +3953,19 @@
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>20</v>
@@ -3963,7 +4014,7 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3972,10 +4023,10 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -3983,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4009,17 +4060,19 @@
         <v>20</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>20</v>
@@ -4044,13 +4097,13 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>20</v>
@@ -4068,7 +4121,7 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4077,10 +4130,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4088,10 +4141,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4114,17 +4167,19 @@
         <v>20</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>20</v>
@@ -4173,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4182,10 +4237,10 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4193,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4219,19 +4274,19 @@
         <v>20</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>20</v>
@@ -4280,7 +4335,7 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4289,10 +4344,10 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4300,10 +4355,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4326,17 +4381,19 @@
         <v>20</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>20</v>
@@ -4385,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4394,10 +4451,10 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -4405,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4431,17 +4488,19 @@
         <v>20</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>20</v>
@@ -4466,13 +4525,13 @@
         <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>20</v>
@@ -4490,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4499,10 +4558,10 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4510,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4536,17 +4595,19 @@
         <v>20</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>20</v>
@@ -4595,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4604,10 +4665,10 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -4615,10 +4676,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4641,15 +4702,17 @@
         <v>20</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>20</v>
@@ -4698,7 +4761,7 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4707,10 +4770,10 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -4718,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4744,19 +4807,19 @@
         <v>20</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -4805,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -4814,10 +4877,10 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4825,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4851,13 +4914,13 @@
         <v>20</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4908,7 +4971,7 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -4928,14 +4991,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -4954,16 +5017,16 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5001,19 +5064,19 @@
         <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5022,10 +5085,10 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -5033,14 +5096,14 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -5059,19 +5122,19 @@
         <v>82</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>20</v>
@@ -5120,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5129,10 +5192,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -5140,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5166,19 +5229,19 @@
         <v>20</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>20</v>
@@ -5203,13 +5266,13 @@
         <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>20</v>
@@ -5227,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
@@ -5236,10 +5299,10 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5247,10 +5310,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5273,19 +5336,19 @@
         <v>20</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>20</v>
@@ -5334,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5343,10 +5406,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5354,14 +5417,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -5380,16 +5443,16 @@
         <v>20</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -5439,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5448,10 +5511,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40">
@@ -5459,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5485,19 +5548,19 @@
         <v>82</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
@@ -5546,7 +5609,7 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5555,10 +5618,10 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -5566,10 +5629,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5592,19 +5655,19 @@
         <v>82</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
@@ -5653,7 +5716,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -5662,10 +5725,10 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -5673,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5699,13 +5762,13 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5756,7 +5819,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5776,14 +5839,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -5802,16 +5865,16 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -5849,19 +5912,19 @@
         <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -5870,10 +5933,10 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
@@ -5881,14 +5944,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -5907,19 +5970,19 @@
         <v>82</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>20</v>
@@ -5968,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -5977,10 +6040,10 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
@@ -5988,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6014,16 +6077,16 @@
         <v>82</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6073,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
@@ -6082,10 +6145,10 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46">
@@ -6093,10 +6156,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6119,15 +6182,17 @@
         <v>82</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>20</v>
@@ -6152,13 +6217,13 @@
         <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>20</v>
@@ -6176,7 +6241,7 @@
         <v>20</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
@@ -6185,10 +6250,10 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T12:33:46+01:00</t>
+    <t>2025-01-24T13:49:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Example Publisher</t>
+    <t>Berlin Institute of Health</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Example Publisher (http://example.org/example-publisher)</t>
+    <t>Berlin Institute of Health (http://example.org/example-publisher)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:49:28+01:00</t>
+    <t>2025-01-30T11:07:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T11:07:20+01:00</t>
+    <t>2025-02-05T15:53:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="303">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T15:53:09+01:00</t>
+    <t>2025-02-05T16:34:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -299,10 +299,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -418,16 +414,6 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -532,10 +518,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
-  </si>
-  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -628,9 +610,6 @@
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -686,10 +665,6 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
-  </si>
-  <si>
     <t>Patient.contact</t>
   </si>
   <si>
@@ -782,9 +757,6 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
-  </si>
-  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -809,9 +781,6 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -819,9 +788,6 @@
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
@@ -840,18 +806,11 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t>ele-1
-pat-1</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+    <t xml:space="preserve">pat-1
+</t>
   </si>
   <si>
     <t>Patient.contact.period</t>
@@ -865,14 +824,6 @@
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -1337,17 +1288,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.13671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.84375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.2890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="38.4609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1356,21 +1307,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.75390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="52.28125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.91796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.9609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="52.46484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="18.84765625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1792,10 +1743,10 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1803,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1829,16 +1780,16 @@
         <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -1888,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
@@ -1897,10 +1848,10 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1908,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1934,16 +1885,16 @@
         <v>20</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -1969,31 +1920,31 @@
         <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -2002,10 +1953,10 @@
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -2013,14 +1964,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -2039,16 +1990,16 @@
         <v>20</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2098,7 +2049,7 @@
         <v>20</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
@@ -2107,10 +2058,10 @@
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2118,14 +2069,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2144,16 +2095,16 @@
         <v>20</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2203,7 +2154,7 @@
         <v>20</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -2223,14 +2174,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2249,16 +2200,16 @@
         <v>20</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2296,19 +2247,19 @@
         <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -2317,10 +2268,10 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -2328,14 +2279,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2354,19 +2305,19 @@
         <v>20</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>20</v>
@@ -2403,19 +2354,19 @@
         <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -2424,10 +2375,10 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
@@ -2435,10 +2386,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2461,17 +2412,17 @@
         <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>20</v>
@@ -2520,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -2529,10 +2480,10 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2540,10 +2491,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2566,26 +2517,26 @@
         <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="Q12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="S12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2629,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -2638,10 +2589,10 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2649,10 +2600,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2675,19 +2626,19 @@
         <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P13" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="Q13" t="s" s="2">
         <v>20</v>
@@ -2736,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2745,10 +2696,10 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2756,10 +2707,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2782,19 +2733,19 @@
         <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="P14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>20</v>
@@ -2843,7 +2794,7 @@
         <v>20</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2852,10 +2803,10 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2863,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2889,19 +2840,19 @@
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>20</v>
@@ -2926,13 +2877,13 @@
         <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>20</v>
@@ -2950,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2959,10 +2910,10 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2970,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2996,19 +2947,19 @@
         <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>20</v>
@@ -3057,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -3066,10 +3017,10 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -3077,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3103,19 +3054,19 @@
         <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>20</v>
@@ -3164,7 +3115,7 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -3173,10 +3124,10 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -3184,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3210,19 +3161,19 @@
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q18" t="s" s="2">
         <v>20</v>
@@ -3271,7 +3222,7 @@
         <v>20</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3280,10 +3231,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3291,10 +3242,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3317,19 +3268,17 @@
         <v>20</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>20</v>
@@ -3354,13 +3303,13 @@
         <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AB19" t="s" s="2">
         <v>20</v>
@@ -3378,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3387,10 +3336,10 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3398,10 +3347,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3424,19 +3373,19 @@
         <v>20</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>20</v>
@@ -3485,7 +3434,7 @@
         <v>20</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3494,10 +3443,10 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -3505,10 +3454,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3531,19 +3480,19 @@
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>20</v>
@@ -3592,7 +3541,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3601,10 +3550,10 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3612,10 +3561,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3638,19 +3587,19 @@
         <v>20</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>20</v>
@@ -3699,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3708,10 +3657,10 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -3719,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3745,13 +3694,13 @@
         <v>20</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3802,7 +3751,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3822,14 +3771,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
@@ -3848,16 +3797,16 @@
         <v>20</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -3895,19 +3844,19 @@
         <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3916,10 +3865,10 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -3927,14 +3876,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -3953,19 +3902,19 @@
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>20</v>
@@ -4014,7 +3963,7 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4023,10 +3972,10 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
@@ -4034,10 +3983,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4060,19 +4009,17 @@
         <v>20</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>20</v>
@@ -4097,13 +4044,13 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>20</v>
@@ -4121,7 +4068,7 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4130,10 +4077,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4141,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4167,19 +4114,17 @@
         <v>20</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>20</v>
@@ -4228,7 +4173,7 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4237,10 +4182,10 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4248,10 +4193,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4274,19 +4219,19 @@
         <v>20</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="P28" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>20</v>
@@ -4335,7 +4280,7 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4344,10 +4289,10 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4355,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4381,19 +4326,17 @@
         <v>20</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>20</v>
@@ -4442,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4451,10 +4394,10 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -4462,10 +4405,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4488,19 +4431,17 @@
         <v>20</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>20</v>
@@ -4525,13 +4466,13 @@
         <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>20</v>
@@ -4549,7 +4490,7 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4558,10 +4499,10 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4569,10 +4510,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4595,19 +4536,17 @@
         <v>20</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>20</v>
@@ -4656,7 +4595,7 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4665,10 +4604,10 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>264</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -4676,10 +4615,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4702,17 +4641,15 @@
         <v>20</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>20</v>
@@ -4761,7 +4698,7 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4770,10 +4707,10 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -4781,10 +4718,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4807,19 +4744,19 @@
         <v>20</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -4868,7 +4805,7 @@
         <v>20</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -4877,10 +4814,10 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4888,10 +4825,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4914,13 +4851,13 @@
         <v>20</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4971,7 +4908,7 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -4991,14 +4928,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -5017,16 +4954,16 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5064,19 +5001,19 @@
         <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5085,10 +5022,10 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -5096,14 +5033,14 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -5122,19 +5059,19 @@
         <v>82</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>20</v>
@@ -5183,7 +5120,7 @@
         <v>20</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5192,10 +5129,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5203,10 +5140,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5229,19 +5166,19 @@
         <v>20</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>20</v>
@@ -5266,14 +5203,14 @@
         <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Z37" t="s" s="2">
+      <c r="AA37" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AA37" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="AB37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5290,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
@@ -5299,10 +5236,10 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5310,10 +5247,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5336,19 +5273,19 @@
         <v>20</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>20</v>
@@ -5397,7 +5334,7 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5406,10 +5343,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5417,14 +5354,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -5443,16 +5380,16 @@
         <v>20</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -5502,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5511,10 +5448,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="40">
@@ -5522,10 +5459,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5548,19 +5485,19 @@
         <v>82</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
@@ -5609,7 +5546,7 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5618,10 +5555,10 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -5629,10 +5566,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5655,19 +5592,19 @@
         <v>82</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
@@ -5716,7 +5653,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -5725,10 +5662,10 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -5736,10 +5673,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5762,13 +5699,13 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5819,7 +5756,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5839,14 +5776,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -5865,16 +5802,16 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -5912,19 +5849,19 @@
         <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -5933,10 +5870,10 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -5944,14 +5881,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -5970,19 +5907,19 @@
         <v>82</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>20</v>
@@ -6031,7 +5968,7 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6040,10 +5977,10 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -6051,10 +5988,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6077,16 +6014,16 @@
         <v>82</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6136,7 +6073,7 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
@@ -6145,10 +6082,10 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>264</v>
       </c>
     </row>
     <row r="46">
@@ -6156,10 +6093,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6182,17 +6119,15 @@
         <v>82</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>20</v>
@@ -6217,13 +6152,13 @@
         <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>20</v>
@@ -6241,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
@@ -6250,10 +6185,10 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="317">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T16:34:42+01:00</t>
+    <t>2025-02-05T17:06:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Berlin Institute of Health (http://example.org/example-publisher)</t>
+    <t>Berlin Institute of Health (https://www.bihealth.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -255,7 +255,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -299,6 +299,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -414,6 +418,16 @@
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -518,6 +532,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -610,6 +628,9 @@
   </si>
   <si>
     <t>This field contains a patient's most recent marital (civil) status.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>Most, if not all systems capture it.</t>
@@ -665,6 +686,10 @@
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
+  </si>
+  <si>
     <t>Patient.contact</t>
   </si>
   <si>
@@ -757,6 +782,9 @@
     <t>A name associated with the contact person.</t>
   </si>
   <si>
+    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+  </si>
+  <si>
     <t>Contact persons need to be identified by name, but it is uncommon to need details about multiple other names for that contact person.</t>
   </si>
   <si>
@@ -781,6 +809,9 @@
     <t>Address for the contact person.</t>
   </si>
   <si>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
     <t>Need to keep track where the contact person can be contacted per postal mail or visited.</t>
   </si>
   <si>
@@ -788,6 +819,9 @@
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Needed to address the person correctly.</t>
@@ -806,11 +840,18 @@
     <t>Organization on behalf of which the contact is acting or for which the contact is working.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>For guardians or business related contacts, the organization is relevant.</t>
   </si>
   <si>
-    <t xml:space="preserve">pat-1
-</t>
+    <t>ele-1
+pat-1</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Patient.contact.period</t>
@@ -824,6 +865,14 @@
   </si>
   <si>
     <t>The period during which this contact person or organization is valid to be contacted relating to this patient.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -1288,17 +1337,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.2890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="38.4609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.13671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.84375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="38.81640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.06640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1307,21 +1356,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.91796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="77.9609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="52.46484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="15.703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.91015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.75390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="52.28125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1743,10 +1792,10 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1754,10 +1803,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1780,16 +1829,16 @@
         <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -1839,7 +1888,7 @@
         <v>20</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
@@ -1848,10 +1897,10 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1859,10 +1908,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1885,16 +1934,16 @@
         <v>20</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -1920,13 +1969,13 @@
         <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>20</v>
@@ -1944,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -1953,10 +2002,10 @@
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1964,14 +2013,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -1990,16 +2039,16 @@
         <v>20</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2049,7 +2098,7 @@
         <v>20</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
@@ -2058,10 +2107,10 @@
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2069,14 +2118,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2095,16 +2144,16 @@
         <v>20</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2154,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -2174,14 +2223,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2200,16 +2249,16 @@
         <v>20</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2247,19 +2296,19 @@
         <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -2268,10 +2317,10 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -2279,14 +2328,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2305,19 +2354,19 @@
         <v>20</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>20</v>
@@ -2354,19 +2403,19 @@
         <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
@@ -2375,10 +2424,10 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -2386,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2412,17 +2461,17 @@
         <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>20</v>
@@ -2471,7 +2520,7 @@
         <v>20</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -2480,10 +2529,10 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2491,10 +2540,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2517,70 +2566,70 @@
         <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
@@ -2589,10 +2638,10 @@
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2600,10 +2649,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2626,19 +2675,19 @@
         <v>82</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q13" t="s" s="2">
         <v>20</v>
@@ -2687,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2696,10 +2745,10 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14">
@@ -2707,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2733,19 +2782,19 @@
         <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>20</v>
@@ -2794,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2803,10 +2852,10 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -2814,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2840,19 +2889,19 @@
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>20</v>
@@ -2877,31 +2926,31 @@
         <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2910,10 +2959,10 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2921,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2947,19 +2996,19 @@
         <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>20</v>
@@ -3008,7 +3057,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
@@ -3017,10 +3066,10 @@
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -3028,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3054,19 +3103,19 @@
         <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>20</v>
@@ -3115,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -3124,10 +3173,10 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
@@ -3135,10 +3184,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3161,19 +3210,19 @@
         <v>82</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q18" t="s" s="2">
         <v>20</v>
@@ -3222,7 +3271,7 @@
         <v>20</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3231,10 +3280,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -3242,10 +3291,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3268,17 +3317,19 @@
         <v>20</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>20</v>
@@ -3303,31 +3354,31 @@
         <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -3336,10 +3387,10 @@
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3373,19 +3424,19 @@
         <v>20</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>20</v>
@@ -3434,7 +3485,7 @@
         <v>20</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -3443,10 +3494,10 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -3454,10 +3505,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3480,19 +3531,19 @@
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P21" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q21" t="s" s="2">
         <v>20</v>
@@ -3541,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3550,10 +3601,10 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -3561,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3587,19 +3638,19 @@
         <v>20</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>20</v>
@@ -3648,7 +3699,7 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3657,10 +3708,10 @@
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -3668,10 +3719,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3694,13 +3745,13 @@
         <v>20</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -3751,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3771,14 +3822,14 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
@@ -3797,16 +3848,16 @@
         <v>20</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
@@ -3844,19 +3895,19 @@
         <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3865,10 +3916,10 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25">
@@ -3876,14 +3927,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -3902,19 +3953,19 @@
         <v>82</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>20</v>
@@ -3963,7 +4014,7 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3972,10 +4023,10 @@
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -3983,10 +4034,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4009,17 +4060,19 @@
         <v>20</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>20</v>
@@ -4044,13 +4097,13 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>20</v>
@@ -4068,7 +4121,7 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4077,10 +4130,10 @@
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -4088,10 +4141,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4114,17 +4167,19 @@
         <v>20</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>20</v>
@@ -4173,7 +4228,7 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4182,10 +4237,10 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -4193,10 +4248,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4219,19 +4274,19 @@
         <v>20</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>20</v>
@@ -4280,7 +4335,7 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4289,10 +4344,10 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4300,10 +4355,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4326,17 +4381,19 @@
         <v>20</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q29" t="s" s="2">
         <v>20</v>
@@ -4385,7 +4442,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4394,10 +4451,10 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -4405,10 +4462,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4431,17 +4488,19 @@
         <v>20</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="Q30" t="s" s="2">
         <v>20</v>
@@ -4466,13 +4525,13 @@
         <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>20</v>
@@ -4490,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4499,10 +4558,10 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -4510,10 +4569,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4536,17 +4595,19 @@
         <v>20</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>20</v>
@@ -4595,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4604,10 +4665,10 @@
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -4615,10 +4676,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4641,15 +4702,17 @@
         <v>20</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>20</v>
@@ -4698,7 +4761,7 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4707,10 +4770,10 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -4718,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4744,19 +4807,19 @@
         <v>20</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -4805,7 +4868,7 @@
         <v>20</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -4814,10 +4877,10 @@
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4825,10 +4888,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4851,13 +4914,13 @@
         <v>20</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4908,7 +4971,7 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -4928,14 +4991,14 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
@@ -4954,16 +5017,16 @@
         <v>20</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
@@ -5001,19 +5064,19 @@
         <v>20</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5022,10 +5085,10 @@
         <v>75</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -5033,14 +5096,14 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
@@ -5059,19 +5122,19 @@
         <v>82</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>20</v>
@@ -5120,7 +5183,7 @@
         <v>20</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5129,10 +5192,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -5140,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5166,19 +5229,19 @@
         <v>20</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>20</v>
@@ -5203,13 +5266,13 @@
         <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>20</v>
@@ -5227,7 +5290,7 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>81</v>
@@ -5236,10 +5299,10 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5247,10 +5310,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5273,19 +5336,19 @@
         <v>20</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>20</v>
@@ -5334,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
@@ -5343,10 +5406,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5354,14 +5417,14 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s" s="2">
@@ -5380,16 +5443,16 @@
         <v>20</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
@@ -5439,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
@@ -5448,10 +5511,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40">
@@ -5459,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5485,19 +5548,19 @@
         <v>82</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
@@ -5546,7 +5609,7 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5555,10 +5618,10 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
@@ -5566,10 +5629,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5592,19 +5655,19 @@
         <v>82</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
@@ -5653,7 +5716,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -5662,10 +5725,10 @@
         <v>75</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42">
@@ -5673,10 +5736,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5699,13 +5762,13 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -5756,7 +5819,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
@@ -5776,14 +5839,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -5802,16 +5865,16 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
@@ -5849,19 +5912,19 @@
         <v>20</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -5870,10 +5933,10 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44">
@@ -5881,14 +5944,14 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
@@ -5907,19 +5970,19 @@
         <v>82</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q44" t="s" s="2">
         <v>20</v>
@@ -5968,7 +6031,7 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -5977,10 +6040,10 @@
         <v>75</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45">
@@ -5988,10 +6051,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6014,16 +6077,16 @@
         <v>82</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6073,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>81</v>
@@ -6082,10 +6145,10 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46">
@@ -6093,10 +6156,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6119,15 +6182,17 @@
         <v>82</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>20</v>
@@ -6152,13 +6217,13 @@
         <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="AB46" t="s" s="2">
         <v>20</v>
@@ -6176,7 +6241,7 @@
         <v>20</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>81</v>
@@ -6185,10 +6250,10 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
